--- a/cv_data.xlsx
+++ b/cv_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufangzhou/Library/CloudStorage/Dropbox/Personal Info/datadrivencv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A18B9E-9FBF-5B4D-90B7-25AE2209EA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48551DD0-0671-FD41-B7A1-25435BEF1D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4460" yWindow="500" windowWidth="72340" windowHeight="41500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -269,9 +269,6 @@
     <t>OLS as Propensity Weighting Estimators and Its Causal Interpretation</t>
   </si>
   <si>
-    <t>Measuring the Sensitivity of Parameter Estimates to Estimation Moments under Misspcification</t>
-  </si>
-  <si>
     <t>Work In Progress. Joint work with Seojeong Lee.</t>
   </si>
   <si>
@@ -285,6 +282,9 @@
   </si>
   <si>
     <t>Presented at WEAI International 2023 in Melbourne, SETA 2023 in Singapore, EcoSta 2023 in Tokyo.</t>
+  </si>
+  <si>
+    <t>Measuring the Sensitivity of Parameter Estimates to Estimation Moments under Misspecification</t>
   </si>
 </sst>
 </file>
@@ -736,7 +736,7 @@
   <dimension ref="A1:Z979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1126,10 +1126,10 @@
         <v>2022</v>
       </c>
       <c r="G14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="5" t="b">
@@ -1153,10 +1153,10 @@
         <v>2023</v>
       </c>
       <c r="G15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="5" t="b">
@@ -1167,8 +1167,8 @@
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>81</v>
+      <c r="B16" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>57</v>
@@ -1180,7 +1180,7 @@
         <v>2023</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>

--- a/cv_data.xlsx
+++ b/cv_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufangzhou/Library/CloudStorage/Dropbox/Personal Info/datadrivencv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48551DD0-0671-FD41-B7A1-25435BEF1D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7642BEF-754F-F148-A229-2E9B6C980017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="500" windowWidth="72340" windowHeight="41500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="500" windowWidth="71940" windowHeight="41500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entries" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="88">
   <si>
     <t>Where in your CV this entry belongs</t>
   </si>
@@ -286,6 +286,9 @@
   <si>
     <t>Measuring the Sensitivity of Parameter Estimates to Estimation Moments under Misspecification</t>
   </si>
+  <si>
+    <t>Young Econometrician Award in 32nd ANZESG</t>
+  </si>
 </sst>
 </file>
 
@@ -434,9 +437,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -474,7 +477,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -580,7 +583,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -722,7 +725,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -736,7 +739,7 @@
   <dimension ref="A1:Z979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1123,7 +1126,7 @@
         <v>2021</v>
       </c>
       <c r="F14" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>84</v>
@@ -1131,7 +1134,9 @@
       <c r="H14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="J14" s="5" t="b">
         <v>1</v>
       </c>
@@ -1150,7 +1155,7 @@
         <v>2022</v>
       </c>
       <c r="F15" s="5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>82</v>
@@ -1174,10 +1179,10 @@
         <v>57</v>
       </c>
       <c r="E16" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F16" s="5">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>81</v>

--- a/cv_data.xlsx
+++ b/cv_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufangzhou/Library/CloudStorage/Dropbox/Personal Info/datadrivencv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7642BEF-754F-F148-A229-2E9B6C980017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E684F457-7BDD-1145-8005-47CEC6ECCD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="500" windowWidth="71940" windowHeight="41500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="500" windowWidth="71940" windowHeight="41420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="entries" sheetId="1" r:id="rId1"/>
@@ -272,12 +272,6 @@
     <t>Work In Progress. Joint work with Seojeong Lee.</t>
   </si>
   <si>
-    <t xml:space="preserve">Work In Progress. </t>
-  </si>
-  <si>
-    <t>Presented at Econometric Society Australasian Meeting 2023 in Sydney.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Working Paper. </t>
   </si>
   <si>
@@ -288,6 +282,12 @@
   </si>
   <si>
     <t>Young Econometrician Award in 32nd ANZESG</t>
+  </si>
+  <si>
+    <t>Presented at Econometric Society Australasian Meeting 2023 in Sydney, Midwest Econometric Group Conference 2024 in Lexington, KY.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Market Paper. </t>
   </si>
 </sst>
 </file>
@@ -739,7 +739,7 @@
   <dimension ref="A1:Z979"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="219" zoomScaleNormal="219" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1122,26 +1122,24 @@
       <c r="C14" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="5">
-        <v>2021</v>
-      </c>
+      <c r="E14" s="5"/>
       <c r="F14" s="5">
         <v>2023</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="J14" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="42" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" ht="84" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>26</v>
       </c>
@@ -1151,17 +1149,15 @@
       <c r="C15" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="5">
-        <v>2022</v>
-      </c>
+      <c r="E15" s="5"/>
       <c r="F15" s="5">
         <v>2024</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="5" t="b">
@@ -1173,14 +1169,12 @@
         <v>26</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="5">
-        <v>2023</v>
-      </c>
+      <c r="E16" s="5"/>
       <c r="F16" s="5">
         <v>2024</v>
       </c>
